--- a/Data/SkillsData.xlsx
+++ b/Data/SkillsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D067525-7868-4AFA-AB04-2500E5D6AC93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FCA897-5D64-4915-9A89-16B1CA5A6CF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Url</t>
   </si>
@@ -57,76 +57,85 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Skill Trade</t>
+  </si>
+  <si>
+    <t>Skill Exchange</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Work Sample</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Automation using Selenium C Sharp</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Edit Title</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Testing.jpg</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>25/07/2019</t>
+  </si>
+  <si>
+    <t>30/07/2020</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Skill Trade</t>
-  </si>
-  <si>
-    <t>Skill Exchange</t>
-  </si>
-  <si>
-    <t>Credit Amount</t>
-  </si>
-  <si>
-    <t>Work Sample</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Software Testing</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Hourly basis service</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>12:00PM</t>
   </si>
   <si>
-    <t>3:00PM</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Automation using Selenium C Sharp</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Edit Title</t>
-  </si>
-  <si>
-    <t>Programming &amp; Tech</t>
-  </si>
-  <si>
-    <t>JAVA</t>
+    <t>6:00PM</t>
   </si>
 </sst>
 </file>
@@ -180,8 +189,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECE7CCA-BB40-47E0-A818-349EDF942C64}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +531,9 @@
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -542,82 +553,86 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43641</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44012</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -625,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA626A8-C5AD-41E1-8436-4B95A746A9E8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -637,24 +652,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
